--- a/medicine/Psychotrope/Hoyo_de_Monterrey/Hoyo_de_Monterrey.xlsx
+++ b/medicine/Psychotrope/Hoyo_de_Monterrey/Hoyo_de_Monterrey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoyo de Monterrey est une marque de cigares cubains classée dans le milieu supérieur (medio alto) de la pyramide des marques selon la société Habanos S.A. qui la commercialise.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire de la marque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La marque Hoyo de Monterrey est fondée en 1865 par José Gener, un espagnol né en 1818 et immigré en 1831 à Cuba. Après avoir travaillé dans une plantation de tabac, il avait fondé en 1850 sa propre fabrique sous la marque La Escepción. 
 C'est après avoir acquis sa propre plantation, nommée Hoyo de Monterrey, dans la Vuelta Abajo, qu'il crée cette nouvelle marque, dont la manufacture s'installe rue Alfonso à La Havane. La marque eut rapidement un grand succès, et la manufacture était à la fin du XIXe siècle, lorsque la fille de José, Lutgarna Gener, prit le relais, celle qui employait le plus de torcedores.
